--- a/No Macro Spreadsheets/FTC 2020 Template No Macro.xlsx
+++ b/No Macro Spreadsheets/FTC 2020 Template No Macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Processed Data" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>Team Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Autonomous</t>
-  </si>
-  <si>
-    <t>Tele-Op</t>
   </si>
   <si>
     <t>Team Number:</t>
@@ -171,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -391,33 +385,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -473,17 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -773,10 +736,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -801,88 +764,82 @@
     <col min="18" max="19" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="51" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>11</v>
+      <c r="R1" s="9" t="s">
+        <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
@@ -892,16 +849,16 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
@@ -912,16 +869,16 @@
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
@@ -1024,7 +981,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1044,7 +1001,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1064,7 +1021,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1124,7 +1081,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1312,16 +1269,16 @@
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1332,16 +1289,16 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1584,33 +1541,8 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C3:C38">
+  <conditionalFormatting sqref="C2:C37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1633,8 +1565,8 @@
   </sheetPr>
   <dimension ref="A1:J515"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1586,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
@@ -1667,34 +1599,34 @@
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="H2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
